--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1334638.186730781</v>
+        <v>1330626.383998685</v>
       </c>
     </row>
     <row r="7">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>414.1069739121831</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>356.5456801113112</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T12" t="n">
         <v>136.1757056744559</v>
@@ -1533,7 +1533,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1545,10 +1545,10 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4334047779237</v>
+        <v>84.34705841356882</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S13" t="n">
         <v>152.8999186087154</v>
@@ -1584,16 +1584,16 @@
         <v>237.097464026797</v>
       </c>
       <c r="U13" t="n">
-        <v>234.9965367236226</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>412.8142347894063</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>58.04236988161367</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>318.0327646336682</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>113.9353216629384</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.097464026797</v>
@@ -1824,7 +1824,7 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>71.75620615712862</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>374.3214773735024</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>395.0068731377277</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.92614909825158</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>15.75775879579305</v>
       </c>
       <c r="T19" t="n">
         <v>237.097464026797</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>101.9133692261344</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>120.4676606753265</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
         <v>274.5392124624013</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.41237712588146</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>23.43553964662059</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>134.4334047779237</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.8999186087154</v>
@@ -2298,16 +2298,16 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>147.2513662785305</v>
       </c>
       <c r="G23" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>123.9691880407042</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2383,7 +2383,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>322.6353553659306</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>112.4869609894218</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>92.05003690140326</v>
       </c>
       <c r="H27" t="n">
-        <v>42.57408601892043</v>
+        <v>42.57408601892042</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304345</v>
       </c>
       <c r="T27" t="n">
         <v>136.1757056744559</v>
@@ -2733,7 +2733,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I28" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648553</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2800,13 +2800,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>241.0019576260822</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>14.50535606500073</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2888,7 +2888,7 @@
         <v>92.05003690140326</v>
       </c>
       <c r="H30" t="n">
-        <v>42.57408601892043</v>
+        <v>42.57408601892042</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304345</v>
       </c>
       <c r="T30" t="n">
         <v>136.1757056744559</v>
@@ -2970,7 +2970,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I31" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648553</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3031,7 +3031,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -3040,13 +3040,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>133.0010001976554</v>
       </c>
       <c r="G32" t="n">
-        <v>5.211119789568696</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3125,7 +3125,7 @@
         <v>92.05003690140326</v>
       </c>
       <c r="H33" t="n">
-        <v>42.57408601892043</v>
+        <v>42.57408601892042</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304345</v>
       </c>
       <c r="T33" t="n">
         <v>136.1757056744559</v>
@@ -3207,7 +3207,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I34" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648553</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>351.8938413833181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.7838137938487</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T36" t="n">
         <v>136.1757056744559</v>
@@ -3426,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>66.61043266197019</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3435,7 +3435,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.7030512222169</v>
@@ -3444,7 +3444,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648588</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S37" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>16.42392788498677</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>169.598768049788</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>10.62280768270812</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T39" t="n">
         <v>136.1757056744559</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3681,7 +3681,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>81.2715458605788</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>66.82387275100946</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>78.42916846836354</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>145.7589612772719</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T42" t="n">
         <v>136.1757056744559</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>15.75775879579455</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603956</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648588</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
-        <v>106.2618375106215</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>375.4020349841412</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161368</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>381.4191558211657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T45" t="n">
         <v>136.1757056744559</v>
@@ -4137,10 +4137,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>15.75775879579455</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603956</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648588</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>108.9118017082926</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
         <v>277.3339849899809</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2137.770914794523</v>
+        <v>891.17222092149</v>
       </c>
       <c r="C11" t="n">
-        <v>1719.481042155954</v>
+        <v>891.17222092149</v>
       </c>
       <c r="D11" t="n">
-        <v>1296.188421340954</v>
+        <v>467.8796001064902</v>
       </c>
       <c r="E11" t="n">
-        <v>870.211481488812</v>
+        <v>467.8796001064902</v>
       </c>
       <c r="F11" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="G11" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K11" t="n">
         <v>437.0691715610003</v>
       </c>
       <c r="L11" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848319</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
@@ -5056,37 +5056,37 @@
         <v>1332.07042163564</v>
       </c>
       <c r="O11" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636163</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977125</v>
       </c>
       <c r="Q11" t="n">
         <v>2048.878716272599</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S11" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="T11" t="n">
-        <v>2137.770914794523</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U11" t="n">
-        <v>2137.770914794523</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="V11" t="n">
-        <v>2137.770914794523</v>
+        <v>1251.319372549077</v>
       </c>
       <c r="W11" t="n">
-        <v>2137.770914794523</v>
+        <v>891.17222092149</v>
       </c>
       <c r="X11" t="n">
-        <v>2137.770914794523</v>
+        <v>891.17222092149</v>
       </c>
       <c r="Y11" t="n">
-        <v>2137.770914794523</v>
+        <v>891.17222092149</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>85.75954558772926</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745212</v>
+        <v>62.98439029745211</v>
       </c>
       <c r="J12" t="n">
-        <v>404.4659091426544</v>
+        <v>142.0237151377161</v>
       </c>
       <c r="K12" t="n">
-        <v>552.2568635109026</v>
+        <v>289.8146695059643</v>
       </c>
       <c r="L12" t="n">
-        <v>758.5074531333023</v>
+        <v>496.0652591283639</v>
       </c>
       <c r="M12" t="n">
-        <v>1002.337654088804</v>
+        <v>739.8954600838651</v>
       </c>
       <c r="N12" t="n">
-        <v>1254.962719722999</v>
+        <v>992.5205257180605</v>
       </c>
       <c r="O12" t="n">
-        <v>1482.454583745858</v>
+        <v>1220.012389740919</v>
       </c>
       <c r="P12" t="n">
-        <v>1661.89523739668</v>
+        <v>1399.453043391741</v>
       </c>
       <c r="Q12" t="n">
         <v>1773.7346928875</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.955188520548</v>
+        <v>803.3536277883341</v>
       </c>
       <c r="C13" t="n">
-        <v>917.9826253994636</v>
+        <v>631.38106466725</v>
       </c>
       <c r="D13" t="n">
-        <v>754.6658525262343</v>
+        <v>631.38106466725</v>
       </c>
       <c r="E13" t="n">
-        <v>588.4576466790878</v>
+        <v>465.1728588201036</v>
       </c>
       <c r="F13" t="n">
-        <v>416.5958724536483</v>
+        <v>293.311084594664</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2392550574695</v>
+        <v>127.9544671984852</v>
       </c>
       <c r="H13" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="J13" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484803</v>
       </c>
       <c r="K13" t="n">
-        <v>491.6854607613571</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L13" t="n">
-        <v>977.56884454457</v>
+        <v>523.2582343051841</v>
       </c>
       <c r="M13" t="n">
-        <v>1322.603833371155</v>
+        <v>1052.356535716829</v>
       </c>
       <c r="N13" t="n">
-        <v>1437.099088512675</v>
+        <v>1564.884713700229</v>
       </c>
       <c r="O13" t="n">
-        <v>1539.553111280805</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P13" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.770914794523</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S13" t="n">
-        <v>1983.326552563497</v>
+        <v>1976.771053098195</v>
       </c>
       <c r="T13" t="n">
-        <v>1743.834164657642</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U13" t="n">
-        <v>1506.463925542871</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="V13" t="n">
-        <v>1506.463925542871</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="W13" t="n">
-        <v>1506.463925542871</v>
+        <v>1462.426261364853</v>
       </c>
       <c r="X13" t="n">
-        <v>1506.463925542871</v>
+        <v>1219.862364810658</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.121157232613</v>
+        <v>993.5195965003998</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>892.94876909759</v>
+        <v>891.17222092149</v>
       </c>
       <c r="C14" t="n">
-        <v>466.0480391108902</v>
+        <v>891.17222092149</v>
       </c>
       <c r="D14" t="n">
-        <v>42.75541829589045</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="E14" t="n">
-        <v>42.75541829589045</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F14" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G14" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103611</v>
+        <v>84.39494262103653</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K14" t="n">
         <v>437.0691715610001</v>
       </c>
       <c r="L14" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848317</v>
       </c>
       <c r="M14" t="n">
         <v>1017.958031365649</v>
@@ -5302,28 +5302,28 @@
         <v>2048.878716272599</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2079.142258348448</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>2079.142258348448</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U14" t="n">
-        <v>2079.142258348448</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="V14" t="n">
-        <v>1721.652843474698</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="W14" t="n">
-        <v>1721.652843474698</v>
+        <v>1212.417437723175</v>
       </c>
       <c r="X14" t="n">
-        <v>1309.932844642445</v>
+        <v>891.17222092149</v>
       </c>
       <c r="Y14" t="n">
-        <v>1309.932844642445</v>
+        <v>891.17222092149</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>85.75954558772926</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I15" t="n">
-        <v>86.44169614186396</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J15" t="n">
-        <v>165.481020982128</v>
+        <v>142.0237151377161</v>
       </c>
       <c r="K15" t="n">
-        <v>313.2719753503762</v>
+        <v>552.2568635109028</v>
       </c>
       <c r="L15" t="n">
-        <v>519.5225649727759</v>
+        <v>758.5074531333025</v>
       </c>
       <c r="M15" t="n">
         <v>1002.337654088804</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>450.7372730942841</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="C16" t="n">
-        <v>278.7647099732001</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="D16" t="n">
-        <v>115.4479370999708</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="E16" t="n">
-        <v>115.4479370999708</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="F16" t="n">
-        <v>115.4479370999708</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="G16" t="n">
         <v>115.4479370999708</v>
@@ -5433,55 +5433,55 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J16" t="n">
-        <v>84.71320548484805</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K16" t="n">
         <v>166.4811349991141</v>
       </c>
       <c r="L16" t="n">
-        <v>275.9756251911621</v>
+        <v>481.8999867656332</v>
       </c>
       <c r="M16" t="n">
-        <v>698.2420836039697</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N16" t="n">
-        <v>1210.77026158737</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O16" t="n">
-        <v>1690.926608658703</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880157</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.771053098195</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.27866519234</v>
+        <v>1898.278526888667</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.143326818622</v>
+        <v>1618.143188514949</v>
       </c>
       <c r="V16" t="n">
-        <v>1384.66231049829</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W16" t="n">
-        <v>1109.809906670803</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="X16" t="n">
-        <v>867.2460101166077</v>
+        <v>819.015420741296</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.9032418063498</v>
+        <v>592.672652431038</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>467.8796001064902</v>
+        <v>1318.925708949733</v>
       </c>
       <c r="C17" t="n">
-        <v>467.8796001064902</v>
+        <v>892.0249789630327</v>
       </c>
       <c r="D17" t="n">
-        <v>467.8796001064902</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="E17" t="n">
-        <v>467.8796001064902</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="F17" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G17" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I17" t="n">
         <v>84.39494262103614</v>
@@ -5518,10 +5518,10 @@
         <v>222.2360596072045</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715609998</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848316</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M17" t="n">
         <v>1017.958031365649</v>
@@ -5533,34 +5533,34 @@
         <v>1626.510864636164</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q17" t="n">
         <v>2048.878716272599</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S17" t="n">
-        <v>2079.142258348448</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.003122344157</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U17" t="n">
-        <v>1608.808787422828</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="V17" t="n">
-        <v>1251.319372549077</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="W17" t="n">
-        <v>873.2168701515999</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="X17" t="n">
-        <v>873.2168701515999</v>
+        <v>1738.774073241263</v>
       </c>
       <c r="Y17" t="n">
-        <v>467.8796001064902</v>
+        <v>1738.774073241263</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>85.75954558772926</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I18" t="n">
         <v>86.44169614186396</v>
       </c>
       <c r="J18" t="n">
-        <v>165.481020982128</v>
+        <v>299.010408857749</v>
       </c>
       <c r="K18" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259972</v>
       </c>
       <c r="L18" t="n">
-        <v>519.5225649727759</v>
+        <v>653.0519528483969</v>
       </c>
       <c r="M18" t="n">
-        <v>763.3527659282772</v>
+        <v>896.8821538038983</v>
       </c>
       <c r="N18" t="n">
-        <v>1015.977831562473</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O18" t="n">
-        <v>1243.469695585332</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P18" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.5958724536483</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C19" t="n">
-        <v>416.5958724536483</v>
+        <v>214.61719252133</v>
       </c>
       <c r="D19" t="n">
-        <v>416.5958724536483</v>
+        <v>214.61719252133</v>
       </c>
       <c r="E19" t="n">
-        <v>416.5958724536483</v>
+        <v>214.61719252133</v>
       </c>
       <c r="F19" t="n">
-        <v>416.5958724536483</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2392550574695</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589045</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J19" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K19" t="n">
-        <v>491.6854607613571</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L19" t="n">
-        <v>977.56884454457</v>
+        <v>523.2582343051841</v>
       </c>
       <c r="M19" t="n">
-        <v>1388.700612480481</v>
+        <v>1052.356535716829</v>
       </c>
       <c r="N19" t="n">
-        <v>1901.228790463881</v>
+        <v>1564.884713700229</v>
       </c>
       <c r="O19" t="n">
-        <v>2003.682813232011</v>
+        <v>1667.338736468359</v>
       </c>
       <c r="P19" t="n">
-        <v>2088.252358880157</v>
+        <v>2064.664486689813</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794522</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R19" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S19" t="n">
-        <v>1976.771053098195</v>
+        <v>2121.853986717964</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.27866519234</v>
+        <v>1882.361598812109</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818622</v>
+        <v>1602.226260438391</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.43185942665</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W19" t="n">
-        <v>900.5794555991633</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X19" t="n">
-        <v>658.0155590449684</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.6727907347105</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1717.922550502993</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="C20" t="n">
-        <v>1291.021820516293</v>
+        <v>1148.376575350962</v>
       </c>
       <c r="D20" t="n">
-        <v>867.7291997012933</v>
+        <v>1148.376575350962</v>
       </c>
       <c r="E20" t="n">
-        <v>441.7522598491508</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F20" t="n">
-        <v>441.7522598491508</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G20" t="n">
         <v>320.0677541164978</v>
@@ -5749,16 +5749,16 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103585</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072042</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K20" t="n">
-        <v>437.069171561</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848319</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
@@ -5770,7 +5770,7 @@
         <v>1626.510864636164</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977125</v>
       </c>
       <c r="Q20" t="n">
         <v>2048.878716272599</v>
@@ -5779,25 +5779,25 @@
         <v>2137.770914794523</v>
       </c>
       <c r="S20" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T20" t="n">
-        <v>2137.770914794523</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U20" t="n">
-        <v>2137.770914794523</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="V20" t="n">
-        <v>2137.770914794523</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W20" t="n">
-        <v>2137.770914794523</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="X20" t="n">
-        <v>2137.770914794523</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="Y20" t="n">
-        <v>2137.770914794523</v>
+        <v>1251.319372549078</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J21" t="n">
-        <v>404.4659091426544</v>
+        <v>299.010408857749</v>
       </c>
       <c r="K21" t="n">
-        <v>552.2568635109026</v>
+        <v>446.8013632259972</v>
       </c>
       <c r="L21" t="n">
-        <v>758.5074531333023</v>
+        <v>653.0519528483969</v>
       </c>
       <c r="M21" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038983</v>
       </c>
       <c r="N21" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O21" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1089.955188520548</v>
+        <v>438.2282902000126</v>
       </c>
       <c r="C22" t="n">
-        <v>917.9826253994636</v>
+        <v>438.2282902000126</v>
       </c>
       <c r="D22" t="n">
-        <v>754.6658525262343</v>
+        <v>274.9115173267833</v>
       </c>
       <c r="E22" t="n">
-        <v>588.4576466790878</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="F22" t="n">
-        <v>416.5958724536483</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="G22" t="n">
         <v>251.2392550574695</v>
@@ -5913,49 +5913,49 @@
         <v>162.6349221330689</v>
       </c>
       <c r="K22" t="n">
-        <v>244.402851647335</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>353.8973418393829</v>
+        <v>859.6023110688367</v>
       </c>
       <c r="M22" t="n">
-        <v>882.9956432510273</v>
+        <v>1388.700612480481</v>
       </c>
       <c r="N22" t="n">
-        <v>1395.523821234427</v>
+        <v>1901.228790463881</v>
       </c>
       <c r="O22" t="n">
-        <v>1875.680168305761</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P22" t="n">
-        <v>1960.249713953907</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q22" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T22" t="n">
-        <v>1737.27866519234</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U22" t="n">
-        <v>1457.143326818622</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V22" t="n">
-        <v>1457.143326818622</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="W22" t="n">
-        <v>1182.290922991135</v>
+        <v>907.1349550644654</v>
       </c>
       <c r="X22" t="n">
-        <v>1182.290922991135</v>
+        <v>664.5710585102705</v>
       </c>
       <c r="Y22" t="n">
-        <v>1182.290922991135</v>
+        <v>438.2282902000126</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1012.748156335801</v>
+        <v>1315.354392087888</v>
       </c>
       <c r="C23" t="n">
-        <v>1012.748156335801</v>
+        <v>888.4536621011885</v>
       </c>
       <c r="D23" t="n">
-        <v>1012.748156335801</v>
+        <v>888.4536621011885</v>
       </c>
       <c r="E23" t="n">
-        <v>1012.748156335801</v>
+        <v>888.4536621011885</v>
       </c>
       <c r="F23" t="n">
-        <v>587.623974525201</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G23" t="n">
-        <v>185.2920931428793</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H23" t="n">
         <v>60.07069108156194</v>
@@ -5989,22 +5989,22 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
-        <v>590.316590097411</v>
+        <v>239.5513323928759</v>
       </c>
       <c r="K23" t="n">
-        <v>805.1497020512068</v>
+        <v>982.9261345272049</v>
       </c>
       <c r="L23" t="n">
-        <v>1077.665710575038</v>
+        <v>1255.442143051037</v>
       </c>
       <c r="M23" t="n">
-        <v>1386.038561855856</v>
+        <v>1563.814994331854</v>
       </c>
       <c r="N23" t="n">
-        <v>1700.150952125847</v>
+        <v>1877.927384601845</v>
       </c>
       <c r="O23" t="n">
-        <v>1994.591395126371</v>
+        <v>2172.367827602368</v>
       </c>
       <c r="P23" t="n">
         <v>2737.9661972607</v>
@@ -6016,25 +6016,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T23" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U23" t="n">
-        <v>3003.534554078097</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V23" t="n">
-        <v>2646.045139204346</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W23" t="n">
-        <v>2249.653789504693</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X23" t="n">
-        <v>1837.93379067244</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="Y23" t="n">
-        <v>1432.596520627331</v>
+        <v>1315.354392087888</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.2996630831236</v>
+        <v>103.7569689275354</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233876</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916358</v>
+        <v>330.5872481360476</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140356</v>
+        <v>536.8378377584473</v>
       </c>
       <c r="M24" t="n">
-        <v>757.210732869537</v>
+        <v>780.6680387139486</v>
       </c>
       <c r="N24" t="n">
-        <v>1009.835798503732</v>
+        <v>1033.293104348144</v>
       </c>
       <c r="O24" t="n">
-        <v>1237.327662526591</v>
+        <v>1260.784968371003</v>
       </c>
       <c r="P24" t="n">
-        <v>1416.768316177413</v>
+        <v>1440.225622021825</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6123,61 +6123,61 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119062</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647598</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393203</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431414</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H25" t="n">
-        <v>132.7632098856425</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>916.9624006820206</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M25" t="n">
-        <v>1446.473939781796</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N25" t="n">
-        <v>1959.002117765196</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O25" t="n">
-        <v>2439.15846483653</v>
+        <v>2405.316750564379</v>
       </c>
       <c r="P25" t="n">
-        <v>2836.484215057983</v>
+        <v>2802.642500785833</v>
       </c>
       <c r="Q25" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S25" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U25" t="n">
         <v>2322.906966102196</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2340.002949111658</v>
+        <v>1591.739820081791</v>
       </c>
       <c r="C26" t="n">
-        <v>2014.108650762233</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.816029947233</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="E26" t="n">
         <v>1164.839090095091</v>
@@ -6223,55 +6223,55 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J26" t="n">
-        <v>631.2805511005022</v>
+        <v>239.5513323928761</v>
       </c>
       <c r="K26" t="n">
-        <v>846.1136630542979</v>
+        <v>982.9261345272051</v>
       </c>
       <c r="L26" t="n">
-        <v>1118.62967157813</v>
+        <v>1255.442143051037</v>
       </c>
       <c r="M26" t="n">
-        <v>1427.002522858947</v>
+        <v>1563.814994331854</v>
       </c>
       <c r="N26" t="n">
-        <v>2170.377324993276</v>
+        <v>1877.927384601846</v>
       </c>
       <c r="O26" t="n">
-        <v>2464.817767993799</v>
+        <v>2172.36782760237</v>
       </c>
       <c r="P26" t="n">
-        <v>2710.509461334761</v>
+        <v>2737.9661972607</v>
       </c>
       <c r="Q26" t="n">
-        <v>2887.185619630235</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U26" t="n">
-        <v>2745.340219156767</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V26" t="n">
-        <v>2745.340219156767</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W26" t="n">
-        <v>2745.340219156767</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="X26" t="n">
-        <v>2745.340219156767</v>
+        <v>1705.363013000398</v>
       </c>
       <c r="Y26" t="n">
-        <v>2340.002949111658</v>
+        <v>1591.739820081791</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.2996630831236</v>
+        <v>80.29966308312363</v>
       </c>
       <c r="J27" t="n">
-        <v>421.7811819283257</v>
+        <v>421.7811819283247</v>
       </c>
       <c r="K27" t="n">
-        <v>569.5721362965739</v>
+        <v>569.572136296573</v>
       </c>
       <c r="L27" t="n">
-        <v>775.8227259189737</v>
+        <v>775.8227259189729</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.652926874475</v>
+        <v>1019.652926874474</v>
       </c>
       <c r="N27" t="n">
         <v>1272.27799250867</v>
       </c>
       <c r="O27" t="n">
-        <v>1499.76985653153</v>
+        <v>1499.769856531529</v>
       </c>
       <c r="P27" t="n">
         <v>1679.210510182351</v>
@@ -6363,19 +6363,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851346</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119053</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647588</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393194</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H28" t="n">
         <v>132.7632098856423</v>
@@ -6384,25 +6384,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J28" t="n">
-        <v>102.0284782705195</v>
+        <v>102.0284782705196</v>
       </c>
       <c r="K28" t="n">
-        <v>431.0790168988077</v>
+        <v>431.0790168988078</v>
       </c>
       <c r="L28" t="n">
-        <v>916.9624006820206</v>
+        <v>916.9624006820209</v>
       </c>
       <c r="M28" t="n">
         <v>1446.473939781796</v>
       </c>
       <c r="N28" t="n">
-        <v>1959.002117765196</v>
+        <v>1959.002117765197</v>
       </c>
       <c r="O28" t="n">
         <v>2439.15846483653</v>
       </c>
       <c r="P28" t="n">
-        <v>2836.484215057983</v>
+        <v>2836.484215057984</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
@@ -6411,25 +6411,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.534692381769</v>
+        <v>2842.53469238177</v>
       </c>
       <c r="T28" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U28" t="n">
-        <v>2322.906966102195</v>
+        <v>2322.906966102196</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.195498710224</v>
+        <v>2041.195498710225</v>
       </c>
       <c r="W28" t="n">
-        <v>1766.343094882737</v>
+        <v>1766.343094882738</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.779198328542</v>
+        <v>1523.779198328543</v>
       </c>
       <c r="Y28" t="n">
-        <v>1297.436430018284</v>
+        <v>1297.436430018285</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2163.697044928325</v>
+        <v>1153.700362717688</v>
       </c>
       <c r="C29" t="n">
-        <v>1736.796314941625</v>
+        <v>726.7996327309882</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.503694126626</v>
+        <v>303.5070119159884</v>
       </c>
       <c r="E29" t="n">
-        <v>887.5267542744834</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="F29" t="n">
-        <v>462.4025724638836</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="G29" t="n">
         <v>60.07069108156194</v>
@@ -6460,55 +6460,55 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J29" t="n">
-        <v>631.2805511005022</v>
+        <v>239.5513323928761</v>
       </c>
       <c r="K29" t="n">
-        <v>846.1136630542979</v>
+        <v>652.9110437734548</v>
       </c>
       <c r="L29" t="n">
-        <v>1575.348819368405</v>
+        <v>925.4270522972868</v>
       </c>
       <c r="M29" t="n">
-        <v>1883.721670649222</v>
+        <v>1233.799903578104</v>
       </c>
       <c r="N29" t="n">
-        <v>2197.834060919214</v>
+        <v>1547.912293848095</v>
       </c>
       <c r="O29" t="n">
-        <v>2492.274503919738</v>
+        <v>1842.352736848619</v>
       </c>
       <c r="P29" t="n">
-        <v>2737.9661972607</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q29" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R29" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="V29" t="n">
-        <v>3003.534554078097</v>
+        <v>2375.277346753981</v>
       </c>
       <c r="W29" t="n">
-        <v>3003.534554078097</v>
+        <v>1978.885997054328</v>
       </c>
       <c r="X29" t="n">
-        <v>2988.882679264965</v>
+        <v>1978.885997054328</v>
       </c>
       <c r="Y29" t="n">
-        <v>2583.545409219855</v>
+        <v>1573.548727009218</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.2996630831236</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233876</v>
+        <v>316.325681643419</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916358</v>
+        <v>464.1166360116674</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340673</v>
       </c>
       <c r="M30" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895687</v>
       </c>
       <c r="N30" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223764</v>
       </c>
       <c r="O30" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246623</v>
       </c>
       <c r="P30" t="n">
-        <v>1416.768316177413</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6600,19 +6600,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F31" t="n">
         <v>433.9111452393198</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H31" t="n">
         <v>132.7632098856423</v>
@@ -6621,25 +6621,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J31" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K31" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L31" t="n">
-        <v>916.9624006820206</v>
+        <v>994.8841173302417</v>
       </c>
       <c r="M31" t="n">
-        <v>1446.473939781796</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N31" t="n">
-        <v>1959.002117765196</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O31" t="n">
-        <v>2439.15846483653</v>
+        <v>2517.080181484751</v>
       </c>
       <c r="P31" t="n">
-        <v>2836.484215057983</v>
+        <v>2914.405931706205</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1766.628920909204</v>
+        <v>1723.32891359573</v>
       </c>
       <c r="C32" t="n">
-        <v>1339.728190922505</v>
+        <v>1723.32891359573</v>
       </c>
       <c r="D32" t="n">
-        <v>916.4355701075049</v>
+        <v>1300.03629278073</v>
       </c>
       <c r="E32" t="n">
-        <v>490.4586302553624</v>
+        <v>874.0593529285874</v>
       </c>
       <c r="F32" t="n">
-        <v>65.33444844476264</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G32" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I32" t="n">
-        <v>101.7102154067076</v>
+        <v>101.7102154067077</v>
       </c>
       <c r="J32" t="n">
-        <v>631.2805511005022</v>
+        <v>631.2805511005023</v>
       </c>
       <c r="K32" t="n">
-        <v>846.1136630542979</v>
+        <v>846.1136630542983</v>
       </c>
       <c r="L32" t="n">
-        <v>1423.110161090654</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1731.483012371471</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N32" t="n">
-        <v>2045.595402641462</v>
+        <v>1741.114913128939</v>
       </c>
       <c r="O32" t="n">
-        <v>2340.035845641986</v>
+        <v>2035.555356129463</v>
       </c>
       <c r="P32" t="n">
         <v>2585.727538982948</v>
@@ -6727,25 +6727,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="W32" t="n">
-        <v>3003.534554078097</v>
+        <v>2548.514547932369</v>
       </c>
       <c r="X32" t="n">
-        <v>2591.814555245844</v>
+        <v>2548.514547932369</v>
       </c>
       <c r="Y32" t="n">
-        <v>2186.477285200735</v>
+        <v>2143.17727788726</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.2996630831236</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233876</v>
+        <v>182.7962937677996</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916358</v>
+        <v>330.5872481360479</v>
       </c>
       <c r="L33" t="n">
-        <v>775.8227259189737</v>
+        <v>536.8378377584478</v>
       </c>
       <c r="M33" t="n">
-        <v>1019.652926874475</v>
+        <v>780.6680387139493</v>
       </c>
       <c r="N33" t="n">
-        <v>1272.27799250867</v>
+        <v>1033.293104348145</v>
       </c>
       <c r="O33" t="n">
-        <v>1499.76985653153</v>
+        <v>1260.784968371004</v>
       </c>
       <c r="P33" t="n">
-        <v>1679.210510182351</v>
+        <v>1440.225622021826</v>
       </c>
       <c r="Q33" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R33" t="n">
         <v>1832.965147628227</v>
@@ -6858,25 +6858,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J34" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L34" t="n">
-        <v>916.9624006820206</v>
+        <v>994.8841173302417</v>
       </c>
       <c r="M34" t="n">
-        <v>1446.473939781796</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N34" t="n">
-        <v>1959.002117765196</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O34" t="n">
-        <v>2439.15846483653</v>
+        <v>2517.080181484751</v>
       </c>
       <c r="P34" t="n">
-        <v>2836.484215057983</v>
+        <v>2914.405931706205</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1744.049890760332</v>
+        <v>722.3996354988196</v>
       </c>
       <c r="C35" t="n">
-        <v>1317.149160773633</v>
+        <v>722.3996354988196</v>
       </c>
       <c r="D35" t="n">
-        <v>893.8565399586328</v>
+        <v>722.3996354988196</v>
       </c>
       <c r="E35" t="n">
-        <v>467.8796001064903</v>
+        <v>722.3996354988196</v>
       </c>
       <c r="F35" t="n">
-        <v>42.75541829589046</v>
+        <v>722.3996354988196</v>
       </c>
       <c r="G35" t="n">
-        <v>42.75541829589046</v>
+        <v>320.0677541164979</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589052</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103625</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610006</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848326</v>
       </c>
       <c r="M35" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N35" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635643</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636167</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977129</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.878716272603</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794526</v>
       </c>
       <c r="S35" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794526</v>
       </c>
       <c r="T35" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794526</v>
       </c>
       <c r="U35" t="n">
-        <v>2137.770914794523</v>
+        <v>1879.576579873197</v>
       </c>
       <c r="V35" t="n">
-        <v>2137.770914794523</v>
+        <v>1524.128255243583</v>
       </c>
       <c r="W35" t="n">
-        <v>2137.770914794523</v>
+        <v>1127.736905543929</v>
       </c>
       <c r="X35" t="n">
-        <v>2137.770914794523</v>
+        <v>1127.736905543929</v>
       </c>
       <c r="Y35" t="n">
-        <v>1744.049890760332</v>
+        <v>722.3996354988196</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C36" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D36" t="n">
         <v>377.0871448858306</v>
@@ -7007,31 +7007,31 @@
         <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772933</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589052</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745212</v>
+        <v>62.98439029745221</v>
       </c>
       <c r="J36" t="n">
-        <v>142.0237151377161</v>
+        <v>404.4659091426538</v>
       </c>
       <c r="K36" t="n">
-        <v>289.8146695059643</v>
+        <v>552.2568635109021</v>
       </c>
       <c r="L36" t="n">
-        <v>496.0652591283639</v>
+        <v>758.507453133302</v>
       </c>
       <c r="M36" t="n">
-        <v>739.8954600838651</v>
+        <v>1002.337654088803</v>
       </c>
       <c r="N36" t="n">
-        <v>992.5205257180605</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O36" t="n">
-        <v>1220.012389740919</v>
+        <v>1482.454583745858</v>
       </c>
       <c r="P36" t="n">
         <v>1661.89523739668</v>
@@ -7058,10 +7058,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y36" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>985.2658907145851</v>
+        <v>746.1208511740241</v>
       </c>
       <c r="C37" t="n">
-        <v>917.9826253994637</v>
+        <v>746.1208511740241</v>
       </c>
       <c r="D37" t="n">
-        <v>754.6658525262344</v>
+        <v>582.8040783007948</v>
       </c>
       <c r="E37" t="n">
-        <v>588.4576466790879</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F37" t="n">
         <v>416.5958724536483</v>
@@ -7089,58 +7089,58 @@
         <v>251.2392550574696</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4479370999708</v>
+        <v>115.4479370999709</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589052</v>
       </c>
       <c r="J37" t="n">
-        <v>84.71320548484803</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K37" t="n">
-        <v>166.4811349991141</v>
+        <v>491.6854607613573</v>
       </c>
       <c r="L37" t="n">
-        <v>652.364518782327</v>
+        <v>793.5055319595124</v>
       </c>
       <c r="M37" t="n">
-        <v>768.3405774192804</v>
+        <v>1322.603833371158</v>
       </c>
       <c r="N37" t="n">
-        <v>1210.770261587371</v>
+        <v>1437.099088512678</v>
       </c>
       <c r="O37" t="n">
-        <v>1690.926608658704</v>
+        <v>1539.553111280808</v>
       </c>
       <c r="P37" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.878861502262</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794526</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329221</v>
+        <v>2131.215415329224</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098196</v>
+        <v>1976.771053098199</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.27866519234</v>
+        <v>1976.771053098199</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.143326818622</v>
+        <v>1696.635714724481</v>
       </c>
       <c r="V37" t="n">
-        <v>1175.431859426651</v>
+        <v>1680.045888578029</v>
       </c>
       <c r="W37" t="n">
-        <v>1175.431859426651</v>
+        <v>1405.193484750542</v>
       </c>
       <c r="X37" t="n">
-        <v>1175.431859426651</v>
+        <v>1162.629588196348</v>
       </c>
       <c r="Y37" t="n">
-        <v>1175.431859426651</v>
+        <v>936.2868198860897</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1063.33686588201</v>
+        <v>1145.692256313819</v>
       </c>
       <c r="C38" t="n">
-        <v>1063.33686588201</v>
+        <v>1145.692256313819</v>
       </c>
       <c r="D38" t="n">
-        <v>640.0442450670107</v>
+        <v>722.3996354988196</v>
       </c>
       <c r="E38" t="n">
-        <v>214.0673052148683</v>
+        <v>722.3996354988196</v>
       </c>
       <c r="F38" t="n">
-        <v>214.0673052148683</v>
+        <v>722.3996354988196</v>
       </c>
       <c r="G38" t="n">
-        <v>42.75541829589046</v>
+        <v>320.0677541164979</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589052</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103625</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610006</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848326</v>
       </c>
       <c r="M38" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.958031365652</v>
       </c>
       <c r="N38" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635643</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636163</v>
+        <v>1626.510864636167</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977129</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.878716272598</v>
+        <v>2048.878716272603</v>
       </c>
       <c r="R38" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794526</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794523</v>
+        <v>2127.040806024114</v>
       </c>
       <c r="T38" t="n">
-        <v>2137.770914794523</v>
+        <v>1914.901670019823</v>
       </c>
       <c r="U38" t="n">
-        <v>1879.576579873194</v>
+        <v>1914.901670019823</v>
       </c>
       <c r="V38" t="n">
-        <v>1879.576579873194</v>
+        <v>1557.412255146072</v>
       </c>
       <c r="W38" t="n">
-        <v>1483.185230173541</v>
+        <v>1557.412255146072</v>
       </c>
       <c r="X38" t="n">
-        <v>1483.185230173541</v>
+        <v>1145.692256313819</v>
       </c>
       <c r="Y38" t="n">
-        <v>1483.185230173541</v>
+        <v>1145.692256313819</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C39" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D39" t="n">
         <v>377.0871448858306</v>
@@ -7244,31 +7244,31 @@
         <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772933</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589052</v>
       </c>
       <c r="I39" t="n">
-        <v>86.44169614186396</v>
+        <v>86.44169614186404</v>
       </c>
       <c r="J39" t="n">
-        <v>165.4810209821279</v>
+        <v>299.0104088577477</v>
       </c>
       <c r="K39" t="n">
-        <v>313.2719753503761</v>
+        <v>446.8013632259961</v>
       </c>
       <c r="L39" t="n">
-        <v>519.5225649727759</v>
+        <v>653.0519528483959</v>
       </c>
       <c r="M39" t="n">
-        <v>896.8821538038983</v>
+        <v>896.8821538038974</v>
       </c>
       <c r="N39" t="n">
-        <v>1149.507219438094</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1376.999083460953</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
         <v>1556.439737111774</v>
@@ -7295,10 +7295,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y39" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1017.262669716467</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="C40" t="n">
-        <v>845.2901065953832</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D40" t="n">
-        <v>681.9733337221539</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E40" t="n">
-        <v>515.7651278750075</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F40" t="n">
-        <v>343.9033536495679</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G40" t="n">
-        <v>178.5467362533892</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589046</v>
+        <v>115.4479370999709</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589052</v>
       </c>
       <c r="J40" t="n">
-        <v>84.71320548484803</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K40" t="n">
-        <v>413.7637441131362</v>
+        <v>244.4028516473352</v>
       </c>
       <c r="L40" t="n">
-        <v>899.647127896349</v>
+        <v>730.2862354305481</v>
       </c>
       <c r="M40" t="n">
-        <v>1015.623186533302</v>
+        <v>846.2622940675017</v>
       </c>
       <c r="N40" t="n">
-        <v>1437.099088512675</v>
+        <v>1059.396764209475</v>
       </c>
       <c r="O40" t="n">
-        <v>1539.553111280805</v>
+        <v>1539.553111280808</v>
       </c>
       <c r="P40" t="n">
-        <v>1936.878861502259</v>
+        <v>1936.878861502262</v>
       </c>
       <c r="Q40" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794526</v>
       </c>
       <c r="R40" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794526</v>
       </c>
       <c r="S40" t="n">
-        <v>1983.326552563497</v>
+        <v>1983.3265525635</v>
       </c>
       <c r="T40" t="n">
-        <v>1743.834164657642</v>
+        <v>1743.834164657645</v>
       </c>
       <c r="U40" t="n">
-        <v>1743.834164657642</v>
+        <v>1661.741694091404</v>
       </c>
       <c r="V40" t="n">
-        <v>1743.834164657642</v>
+        <v>1661.741694091404</v>
       </c>
       <c r="W40" t="n">
-        <v>1676.335303292986</v>
+        <v>1386.889290263917</v>
       </c>
       <c r="X40" t="n">
-        <v>1433.771406738791</v>
+        <v>1144.325393709722</v>
       </c>
       <c r="Y40" t="n">
-        <v>1207.428638428533</v>
+        <v>917.9826253994637</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>892.9487690975901</v>
+        <v>871.9880296649121</v>
       </c>
       <c r="C41" t="n">
-        <v>466.0480391108902</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="D41" t="n">
-        <v>42.75541829589046</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E41" t="n">
-        <v>42.75541829589046</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F41" t="n">
-        <v>42.75541829589046</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N41" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636166</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U41" t="n">
-        <v>2058.549532503247</v>
+        <v>1820.947923427121</v>
       </c>
       <c r="V41" t="n">
-        <v>1701.060117629496</v>
+        <v>1673.716649409675</v>
       </c>
       <c r="W41" t="n">
-        <v>1304.668767929843</v>
+        <v>1277.325299710022</v>
       </c>
       <c r="X41" t="n">
-        <v>892.9487690975901</v>
+        <v>1277.325299710022</v>
       </c>
       <c r="Y41" t="n">
-        <v>892.9487690975901</v>
+        <v>871.9880296649121</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C42" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D42" t="n">
         <v>377.0871448858306</v>
@@ -7481,34 +7481,34 @@
         <v>178.739380841672</v>
       </c>
       <c r="G42" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772931</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I42" t="n">
-        <v>86.44169614186396</v>
+        <v>62.98439029745218</v>
       </c>
       <c r="J42" t="n">
-        <v>165.4810209821279</v>
+        <v>142.0237151377162</v>
       </c>
       <c r="K42" t="n">
-        <v>552.2568635109033</v>
+        <v>289.8146695059645</v>
       </c>
       <c r="L42" t="n">
-        <v>758.5074531333029</v>
+        <v>496.0652591283643</v>
       </c>
       <c r="M42" t="n">
-        <v>1002.337654088804</v>
+        <v>739.8954600838658</v>
       </c>
       <c r="N42" t="n">
-        <v>1254.962719723</v>
+        <v>992.5205257180614</v>
       </c>
       <c r="O42" t="n">
-        <v>1482.454583745858</v>
+        <v>1220.012389740921</v>
       </c>
       <c r="P42" t="n">
-        <v>1661.89523739668</v>
+        <v>1399.453043391743</v>
       </c>
       <c r="Q42" t="n">
         <v>1773.7346928875</v>
@@ -7532,10 +7532,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X42" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.955188520548</v>
+        <v>402.5066837189742</v>
       </c>
       <c r="C43" t="n">
-        <v>917.9826253994637</v>
+        <v>230.5341205978902</v>
       </c>
       <c r="D43" t="n">
-        <v>754.6658525262344</v>
+        <v>230.5341205978902</v>
       </c>
       <c r="E43" t="n">
-        <v>588.4576466790879</v>
+        <v>230.5341205978902</v>
       </c>
       <c r="F43" t="n">
-        <v>416.5958724536483</v>
+        <v>58.67234637245065</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2392550574696</v>
+        <v>58.67234637245065</v>
       </c>
       <c r="H43" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J43" t="n">
-        <v>84.71320548484803</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K43" t="n">
-        <v>166.4811349991141</v>
+        <v>491.6854607613572</v>
       </c>
       <c r="L43" t="n">
-        <v>652.364518782327</v>
+        <v>793.5055319595114</v>
       </c>
       <c r="M43" t="n">
-        <v>1075.944407907174</v>
+        <v>1322.603833371156</v>
       </c>
       <c r="N43" t="n">
-        <v>1588.472585890574</v>
+        <v>1437.099088512676</v>
       </c>
       <c r="O43" t="n">
-        <v>1690.926608658704</v>
+        <v>1539.553111280807</v>
       </c>
       <c r="P43" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.878861502261</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="R43" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="S43" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="T43" t="n">
-        <v>2131.215415329221</v>
+        <v>1898.278526888669</v>
       </c>
       <c r="U43" t="n">
-        <v>2131.215415329221</v>
+        <v>1618.143188514951</v>
       </c>
       <c r="V43" t="n">
-        <v>2023.880225924553</v>
+        <v>1336.43172112298</v>
       </c>
       <c r="W43" t="n">
-        <v>1749.027822097066</v>
+        <v>1061.579317295493</v>
       </c>
       <c r="X43" t="n">
-        <v>1506.463925542871</v>
+        <v>819.0154207412978</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.121157232613</v>
+        <v>592.6726524310399</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>469.6561482825904</v>
+        <v>1247.573895224668</v>
       </c>
       <c r="C44" t="n">
-        <v>42.75541829589046</v>
+        <v>868.3799204932119</v>
       </c>
       <c r="D44" t="n">
-        <v>42.75541829589046</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E44" t="n">
-        <v>42.75541829589046</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F44" t="n">
-        <v>42.75541829589046</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103622</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610006</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M44" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N44" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.070421635642</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977128</v>
       </c>
       <c r="Q44" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.878716272601</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="S44" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.003122344157</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U44" t="n">
-        <v>1608.808787422828</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V44" t="n">
-        <v>1251.319372549078</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W44" t="n">
-        <v>854.9280228494245</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X44" t="n">
-        <v>854.9280228494245</v>
+        <v>1667.422259516198</v>
       </c>
       <c r="Y44" t="n">
-        <v>469.6561482825904</v>
+        <v>1667.422259516198</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C45" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D45" t="n">
         <v>377.0871448858306</v>
@@ -7718,28 +7718,28 @@
         <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772931</v>
       </c>
       <c r="H45" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I45" t="n">
-        <v>62.98439029745212</v>
+        <v>62.98439029745218</v>
       </c>
       <c r="J45" t="n">
-        <v>404.4659091426551</v>
+        <v>404.4659091426538</v>
       </c>
       <c r="K45" t="n">
-        <v>552.2568635109033</v>
+        <v>552.2568635109021</v>
       </c>
       <c r="L45" t="n">
-        <v>758.5074531333029</v>
+        <v>758.507453133302</v>
       </c>
       <c r="M45" t="n">
-        <v>1002.337654088804</v>
+        <v>1002.337654088803</v>
       </c>
       <c r="N45" t="n">
-        <v>1254.962719723</v>
+        <v>1254.962719722999</v>
       </c>
       <c r="O45" t="n">
         <v>1482.454583745858</v>
@@ -7769,10 +7769,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y45" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>751.7744195523172</v>
+        <v>402.5066837189742</v>
       </c>
       <c r="C46" t="n">
-        <v>751.7744195523172</v>
+        <v>230.5341205978902</v>
       </c>
       <c r="D46" t="n">
-        <v>588.4576466790879</v>
+        <v>230.5341205978902</v>
       </c>
       <c r="E46" t="n">
-        <v>588.4576466790879</v>
+        <v>230.5341205978902</v>
       </c>
       <c r="F46" t="n">
-        <v>416.5958724536483</v>
+        <v>58.67234637245065</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2392550574696</v>
+        <v>58.67234637245065</v>
       </c>
       <c r="H46" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589049</v>
       </c>
       <c r="J46" t="n">
-        <v>84.71320548484803</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K46" t="n">
-        <v>166.4811349991141</v>
+        <v>244.4028516473351</v>
       </c>
       <c r="L46" t="n">
-        <v>652.364518782327</v>
+        <v>730.2862354305481</v>
       </c>
       <c r="M46" t="n">
-        <v>1181.462820193971</v>
+        <v>846.2622940675017</v>
       </c>
       <c r="N46" t="n">
-        <v>1588.472585890574</v>
+        <v>1059.396764209473</v>
       </c>
       <c r="O46" t="n">
-        <v>1690.926608658704</v>
+        <v>1539.553111280807</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.878861502261</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="R46" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="S46" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794525</v>
       </c>
       <c r="T46" t="n">
-        <v>2021.203494411754</v>
+        <v>1898.278526888669</v>
       </c>
       <c r="U46" t="n">
-        <v>1741.068156038036</v>
+        <v>1618.143188514951</v>
       </c>
       <c r="V46" t="n">
-        <v>1459.356688646065</v>
+        <v>1336.43172112298</v>
       </c>
       <c r="W46" t="n">
-        <v>1184.504284818578</v>
+        <v>1061.579317295493</v>
       </c>
       <c r="X46" t="n">
-        <v>941.9403882643828</v>
+        <v>819.0154207412978</v>
       </c>
       <c r="Y46" t="n">
-        <v>941.9403882643828</v>
+        <v>592.6726524310399</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>265.093125257514</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>231.3726567572035</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>339.7414916804568</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>265.0931252575136</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>241.3988769298248</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>208.0044056307789</v>
       </c>
       <c r="M16" t="n">
-        <v>309.3842421978326</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9102,7 +9102,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>134.8781695713344</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>241.3988769298247</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>298.1370800999568</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>23.8261335256008</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>265.0931252575133</v>
+        <v>134.8781695713344</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>261.0326869852845</v>
       </c>
       <c r="M22" t="n">
         <v>417.2951947219101</v>
@@ -9573,13 +9573,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>129.2956009356067</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>354.308341115692</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>533.8804951318517</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>502.7102109023911</v>
+        <v>323.1380568862321</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>265.0931252575133</v>
+        <v>134.8781695713343</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9807,7 +9807,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>289.161102951019</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.7189728340893</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>533.8804951318516</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9886,19 +9886,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>433.5983958225634</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>323.1380568862301</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>27.73407669286679</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>265.0931252575132</v>
+        <v>265.0931252575122</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.7189728340893</v>
+        <v>118.7189728340883</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>200.5319186129119</v>
       </c>
       <c r="L29" t="n">
-        <v>461.33247251543</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>502.7102109023909</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.8781695713328</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.7189728340893</v>
+        <v>40.01016813891582</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>307.556050012651</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>307.55605001265</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>134.8781695713328</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.7189728340893</v>
+        <v>40.01016813891582</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>265.0931252575127</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>265.0931252575142</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>194.2682636425324</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>417.2951947219108</v>
       </c>
       <c r="N37" t="n">
-        <v>331.2468980066367</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.762145984685048e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.878169571333</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>134.8781695713345</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10992,10 +10992,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>310.0814614523762</v>
+        <v>99.63557070752806</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>241.3988769298254</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>265.0931252575126</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>194.2682636425315</v>
       </c>
       <c r="M43" t="n">
-        <v>310.7109398867613</v>
+        <v>417.2951947219105</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>265.0931252575141</v>
+        <v>265.0931252575127</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11463,19 +11463,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.2951947219101</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>295.4692025808918</v>
+        <v>99.63557070752667</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>8.524748774649765</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
         <v>274.5392124624013</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>35.88175609134532</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>50.08634636435491</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>42.33744826635831</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.835645859208398</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.3085625684984</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>89.57003421026201</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23667,7 +23667,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>49.76772955927852</v>
       </c>
       <c r="H16" t="n">
         <v>134.4334047779237</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>207.1381465609228</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.3085625684984</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>18.10595882915413</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>12.59592570620254</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.3381599266934</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23901,16 +23901,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>137.1421598129224</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>320.7183534606984</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>277.8409018931719</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.85193189906353</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>141.1105841420544</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24217,13 +24217,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>273.6215737139632</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>150.5700244216971</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>99.99636732090227</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>288.7969363552368</v>
       </c>
     </row>
     <row r="27">
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>180.7152128275388</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
         <v>274.5392124624013</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>393.0974427789295</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>287.8719397948383</v>
       </c>
       <c r="G32" t="n">
-        <v>393.0974427789297</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U32" t="n">
         <v>255.612391572116</v>
@@ -24979,10 +24979,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161368</v>
+        <v>58.04236988161364</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>2.020679341694915</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>11.5000835508099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>103.642404827903</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>262.4704248330646</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>228.7097945187104</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161368</v>
+        <v>47.41956219890552</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603956</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648588</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3339849899809</v>
+        <v>196.0624391294022</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>205.2800070382027</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25642,7 +25642,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>274.5392124624013</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161368</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
-        <v>177.1832231037525</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>208.1555594477411</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>118.6756459821292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S43" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>172.6325152074299</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>47.22968770269165</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25879,7 +25879,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>274.5392124624013</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.86474152349285</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>118.6756459821292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603953</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.48994447064856</v>
       </c>
       <c r="S46" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>128.1856623185045</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>318810.9869898825</v>
+        <v>318810.9869898824</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>318810.9869898825</v>
+        <v>318810.9869898824</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>434907.9178637701</v>
+        <v>434907.91786377</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>434907.91786377</v>
+        <v>434907.9178637699</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>318810.9869898824</v>
+        <v>318810.9869898828</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>318810.9869898825</v>
+        <v>318810.9869898828</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>318810.9869898824</v>
+        <v>318810.9869898828</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>318810.9869898825</v>
+        <v>318810.9869898828</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>502037.5599860538</v>
+      </c>
+      <c r="C2" t="n">
+        <v>502037.5599860539</v>
+      </c>
+      <c r="D2" t="n">
         <v>502037.5599860537</v>
       </c>
-      <c r="C2" t="n">
-        <v>502037.5599860538</v>
-      </c>
-      <c r="D2" t="n">
-        <v>502037.5599860538</v>
-      </c>
       <c r="E2" t="n">
-        <v>298537.2081436681</v>
+        <v>298537.2081436682</v>
       </c>
       <c r="F2" t="n">
-        <v>298537.2081436681</v>
+        <v>298537.2081436683</v>
       </c>
       <c r="G2" t="n">
         <v>298537.2081436682</v>
@@ -26334,28 +26334,28 @@
         <v>298537.2081436682</v>
       </c>
       <c r="I2" t="n">
+        <v>374679.9341224727</v>
+      </c>
+      <c r="J2" t="n">
         <v>374679.9341224728</v>
       </c>
-      <c r="J2" t="n">
-        <v>374679.9341224729</v>
-      </c>
       <c r="K2" t="n">
-        <v>374679.9341224729</v>
+        <v>374679.9341224728</v>
       </c>
       <c r="L2" t="n">
-        <v>374679.9341224729</v>
+        <v>374679.9341224728</v>
       </c>
       <c r="M2" t="n">
-        <v>298537.2081436683</v>
+        <v>298537.2081436685</v>
       </c>
       <c r="N2" t="n">
-        <v>298537.208143668</v>
+        <v>298537.2081436684</v>
       </c>
       <c r="O2" t="n">
         <v>298537.2081436683</v>
       </c>
       <c r="P2" t="n">
-        <v>298537.2081436681</v>
+        <v>298537.2081436684</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222536</v>
+        <v>556689.6559222534</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.511436441886276e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160789</v>
+        <v>79247.32527160793</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>322739.0782821833</v>
       </c>
       <c r="E4" t="n">
-        <v>20716.52783166094</v>
+        <v>20716.52783166095</v>
       </c>
       <c r="F4" t="n">
         <v>20716.52783166094</v>
       </c>
       <c r="G4" t="n">
-        <v>20716.52783166093</v>
+        <v>20716.52783166095</v>
       </c>
       <c r="H4" t="n">
+        <v>20716.52783166095</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60803.91340972763</v>
+      </c>
+      <c r="J4" t="n">
+        <v>60803.91340972749</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60803.9134097275</v>
+      </c>
+      <c r="L4" t="n">
+        <v>60803.91340972749</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20716.52783166102</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20716.52783166101</v>
+      </c>
+      <c r="O4" t="n">
         <v>20716.52783166094</v>
       </c>
-      <c r="I4" t="n">
-        <v>60803.91340972757</v>
-      </c>
-      <c r="J4" t="n">
-        <v>60803.91340972757</v>
-      </c>
-      <c r="K4" t="n">
-        <v>60803.91340972757</v>
-      </c>
-      <c r="L4" t="n">
-        <v>60803.91340972756</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20716.52783166096</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20716.52783166099</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20716.52783166096</v>
-      </c>
       <c r="P4" t="n">
-        <v>20716.52783166096</v>
+        <v>20716.52783166094</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>43269.71441650123</v>
+      </c>
+      <c r="F5" t="n">
         <v>43269.71441650124</v>
       </c>
-      <c r="F5" t="n">
-        <v>43269.71441650123</v>
-      </c>
       <c r="G5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="H5" t="n">
         <v>43269.71441650124</v>
@@ -26502,16 +26502,16 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650129</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650129</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650127</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650127</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145670.8817038704</v>
+        <v>145649.1680623741</v>
       </c>
       <c r="C6" t="n">
-        <v>145670.8817038705</v>
+        <v>145649.1680623743</v>
       </c>
       <c r="D6" t="n">
-        <v>145670.8817038705</v>
+        <v>145649.1680623741</v>
       </c>
       <c r="E6" t="n">
-        <v>-322138.6900267476</v>
+        <v>-322741.8332449362</v>
       </c>
       <c r="F6" t="n">
-        <v>234550.965895506</v>
+        <v>233947.8226773173</v>
       </c>
       <c r="G6" t="n">
-        <v>234550.965895506</v>
+        <v>233947.8226773171</v>
       </c>
       <c r="H6" t="n">
-        <v>234550.965895506</v>
+        <v>233947.8226773172</v>
       </c>
       <c r="I6" t="n">
-        <v>199890.5157986519</v>
+        <v>199504.9232261166</v>
       </c>
       <c r="J6" t="n">
-        <v>257446.6989791337</v>
+        <v>257061.1064065986</v>
       </c>
       <c r="K6" t="n">
-        <v>257446.6989791338</v>
+        <v>257061.1064065986</v>
       </c>
       <c r="L6" t="n">
-        <v>257446.6989791338</v>
+        <v>257061.1064065986</v>
       </c>
       <c r="M6" t="n">
-        <v>155303.6406238982</v>
+        <v>154700.4974057094</v>
       </c>
       <c r="N6" t="n">
-        <v>234550.9658955057</v>
+        <v>233947.8226773173</v>
       </c>
       <c r="O6" t="n">
-        <v>234550.9658955061</v>
+        <v>233947.8226773173</v>
       </c>
       <c r="P6" t="n">
-        <v>234550.965895506</v>
+        <v>233947.8226773173</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="F3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="G3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="H3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="I3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="J3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="K3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="L3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="O3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644263</v>
       </c>
       <c r="P3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644263</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>534.4427286986306</v>
+      </c>
+      <c r="F4" t="n">
         <v>534.4427286986307</v>
       </c>
-      <c r="F4" t="n">
-        <v>534.4427286986306</v>
-      </c>
       <c r="G4" t="n">
-        <v>534.4427286986306</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="H4" t="n">
         <v>534.4427286986307</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986315</v>
       </c>
       <c r="N4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986315</v>
       </c>
       <c r="O4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986312</v>
       </c>
       <c r="P4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986312</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.293417964426</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.470250630967136e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777382</v>
+        <v>318.0018188777384</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3.470250630967136e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H11" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J11" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K11" t="n">
         <v>252.7677441824818</v>
       </c>
       <c r="L11" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M11" t="n">
         <v>348.9189914659136</v>
       </c>
       <c r="N11" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O11" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q11" t="n">
         <v>214.5854405596217</v>
       </c>
       <c r="R11" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U11" t="n">
         <v>0.1589687374357951</v>
@@ -31837,13 +31837,13 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J12" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K12" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L12" t="n">
         <v>230.8490156257444</v>
@@ -31852,28 +31852,28 @@
         <v>269.3899127906121</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O12" t="n">
         <v>252.9616513614737</v>
       </c>
       <c r="P12" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q12" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R12" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S12" t="n">
         <v>19.74842099131455</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,28 +31910,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I13" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K13" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L13" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M13" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N13" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O13" t="n">
         <v>125.9880993854245</v>
@@ -31940,19 +31940,19 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262833</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S13" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T13" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H14" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J14" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K14" t="n">
         <v>252.7677441824818</v>
       </c>
       <c r="L14" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M14" t="n">
         <v>348.9189914659136</v>
@@ -32013,10 +32013,10 @@
         <v>354.5648655314068</v>
       </c>
       <c r="O14" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q14" t="n">
         <v>214.5854405596217</v>
@@ -32025,10 +32025,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397732</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564921</v>
       </c>
       <c r="U14" t="n">
         <v>0.1589687374357951</v>
@@ -32074,13 +32074,13 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J15" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K15" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L15" t="n">
         <v>230.8490156257444</v>
@@ -32089,19 +32089,19 @@
         <v>269.3899127906121</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O15" t="n">
         <v>252.9616513614737</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q15" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R15" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S15" t="n">
         <v>19.74842099131455</v>
@@ -32110,7 +32110,7 @@
         <v>4.285430670842522</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.891348786493227</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003424</v>
       </c>
       <c r="I16" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507115</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
@@ -32168,7 +32168,7 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N16" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O16" t="n">
         <v>125.9880993854245</v>
@@ -32177,7 +32177,7 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262831</v>
       </c>
       <c r="R16" t="n">
         <v>40.07828270905</v>
@@ -32186,10 +32186,10 @@
         <v>15.53377839734105</v>
       </c>
       <c r="T16" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781244</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H17" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J17" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K17" t="n">
         <v>252.7677441824818</v>
       </c>
       <c r="L17" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M17" t="n">
         <v>348.9189914659136</v>
@@ -32250,10 +32250,10 @@
         <v>354.5648655314068</v>
       </c>
       <c r="O17" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q17" t="n">
         <v>214.5854405596217</v>
@@ -32262,10 +32262,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397732</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564921</v>
       </c>
       <c r="U17" t="n">
         <v>0.1589687374357951</v>
@@ -32311,13 +32311,13 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K18" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L18" t="n">
         <v>230.8490156257444</v>
@@ -32326,19 +32326,19 @@
         <v>269.3899127906121</v>
       </c>
       <c r="N18" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O18" t="n">
         <v>252.9616513614737</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q18" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S18" t="n">
         <v>19.74842099131455</v>
@@ -32347,7 +32347,7 @@
         <v>4.285430670842522</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.891348786493227</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003424</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507115</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32405,7 +32405,7 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N19" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O19" t="n">
         <v>125.9880993854245</v>
@@ -32414,7 +32414,7 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262831</v>
       </c>
       <c r="R19" t="n">
         <v>40.07828270905</v>
@@ -32423,10 +32423,10 @@
         <v>15.53377839734105</v>
       </c>
       <c r="T19" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781244</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H20" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J20" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K20" t="n">
         <v>252.7677441824818</v>
       </c>
       <c r="L20" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M20" t="n">
         <v>348.9189914659136</v>
@@ -32487,10 +32487,10 @@
         <v>354.5648655314068</v>
       </c>
       <c r="O20" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P20" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q20" t="n">
         <v>214.5854405596217</v>
@@ -32499,10 +32499,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397732</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564921</v>
       </c>
       <c r="U20" t="n">
         <v>0.1589687374357951</v>
@@ -32548,13 +32548,13 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K21" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L21" t="n">
         <v>230.8490156257444</v>
@@ -32563,19 +32563,19 @@
         <v>269.3899127906121</v>
       </c>
       <c r="N21" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O21" t="n">
         <v>252.9616513614737</v>
       </c>
       <c r="P21" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q21" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S21" t="n">
         <v>19.74842099131455</v>
@@ -32584,7 +32584,7 @@
         <v>4.285430670842522</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.891348786493227</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003424</v>
       </c>
       <c r="I22" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507115</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32642,7 +32642,7 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N22" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O22" t="n">
         <v>125.9880993854245</v>
@@ -32651,7 +32651,7 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262831</v>
       </c>
       <c r="R22" t="n">
         <v>40.07828270905</v>
@@ -32660,10 +32660,10 @@
         <v>15.53377839734105</v>
       </c>
       <c r="T22" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781244</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H23" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J23" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K23" t="n">
         <v>252.7677441824818</v>
       </c>
       <c r="L23" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M23" t="n">
         <v>348.9189914659136</v>
@@ -32724,10 +32724,10 @@
         <v>354.5648655314068</v>
       </c>
       <c r="O23" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q23" t="n">
         <v>214.5854405596217</v>
@@ -32736,10 +32736,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397732</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564921</v>
       </c>
       <c r="U23" t="n">
         <v>0.1589687374357951</v>
@@ -32785,13 +32785,13 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K24" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L24" t="n">
         <v>230.8490156257444</v>
@@ -32800,19 +32800,19 @@
         <v>269.3899127906121</v>
       </c>
       <c r="N24" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O24" t="n">
         <v>252.9616513614737</v>
       </c>
       <c r="P24" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q24" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S24" t="n">
         <v>19.74842099131455</v>
@@ -32821,7 +32821,7 @@
         <v>4.285430670842522</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.891348786493227</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003425</v>
+        <v>7.924901029003424</v>
       </c>
       <c r="I25" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507115</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32879,7 +32879,7 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N25" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O25" t="n">
         <v>125.9880993854245</v>
@@ -32888,7 +32888,7 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262831</v>
       </c>
       <c r="R25" t="n">
         <v>40.07828270905</v>
@@ -32897,10 +32897,10 @@
         <v>15.53377839734105</v>
       </c>
       <c r="T25" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781244</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H26" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J26" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K26" t="n">
-        <v>252.7677441824818</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L26" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112411</v>
       </c>
       <c r="M26" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N26" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314071</v>
       </c>
       <c r="O26" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454422</v>
       </c>
       <c r="P26" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596219</v>
       </c>
       <c r="R26" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118911</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564928</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357953</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H27" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208253</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K27" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244933</v>
       </c>
       <c r="L27" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M27" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N27" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O27" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P27" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551342</v>
       </c>
       <c r="S27" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131457</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842525</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932277</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003425</v>
+        <v>7.92490102900343</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108726</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507116</v>
+        <v>63.0183592050712</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L28" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M28" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N28" t="n">
         <v>136.4006738458228</v>
       </c>
       <c r="O28" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R28" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905003</v>
       </c>
       <c r="S28" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T28" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781248</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H29" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J29" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K29" t="n">
-        <v>252.7677441824818</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L29" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112411</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N29" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314071</v>
       </c>
       <c r="O29" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454422</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596219</v>
       </c>
       <c r="R29" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118911</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564928</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357953</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H30" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208253</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K30" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244933</v>
       </c>
       <c r="L30" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M30" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N30" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O30" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P30" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551342</v>
       </c>
       <c r="S30" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131457</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842525</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932277</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003425</v>
+        <v>7.92490102900343</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108726</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507116</v>
+        <v>63.0183592050712</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L31" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M31" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N31" t="n">
         <v>136.4006738458228</v>
       </c>
       <c r="O31" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R31" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905003</v>
       </c>
       <c r="S31" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T31" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781248</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H32" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J32" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K32" t="n">
-        <v>252.7677441824818</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L32" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112411</v>
       </c>
       <c r="M32" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314071</v>
       </c>
       <c r="O32" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454422</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596219</v>
       </c>
       <c r="R32" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118911</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564928</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357953</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H33" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208253</v>
       </c>
       <c r="J33" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K33" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244933</v>
       </c>
       <c r="L33" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M33" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N33" t="n">
-        <v>276.5198621874764</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O33" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P33" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551342</v>
       </c>
       <c r="S33" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131457</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842525</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932271</v>
+        <v>0.8913487864932277</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003425</v>
+        <v>7.92490102900343</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108726</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507116</v>
+        <v>63.0183592050712</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L34" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M34" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N34" t="n">
         <v>136.4006738458228</v>
       </c>
       <c r="O34" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P34" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R34" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905003</v>
       </c>
       <c r="S34" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T34" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781248</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.987109217947439</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H35" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J35" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K35" t="n">
-        <v>252.7677441824818</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L35" t="n">
-        <v>313.5807379112408</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314067</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O35" t="n">
-        <v>334.8055482454419</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R35" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H36" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.60569180208249</v>
+        <v>36.60569180208252</v>
       </c>
       <c r="J36" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K36" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L36" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M36" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N36" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P36" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551336</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S36" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932276</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003429</v>
       </c>
       <c r="I37" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K37" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L37" t="n">
-        <v>132.5192550391839</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M37" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N37" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O37" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P37" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S37" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T37" t="n">
-        <v>3.808490269561969</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.987109217947439</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J38" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K38" t="n">
-        <v>252.7677441824818</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L38" t="n">
-        <v>313.5807379112408</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314067</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O38" t="n">
-        <v>334.8055482454419</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R38" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H39" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.60569180208249</v>
+        <v>36.60569180208252</v>
       </c>
       <c r="J39" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K39" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L39" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M39" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N39" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P39" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551336</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S39" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932276</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003429</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K40" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L40" t="n">
-        <v>132.5192550391839</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M40" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N40" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O40" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P40" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T40" t="n">
-        <v>3.808490269561969</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.987109217947439</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J41" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K41" t="n">
-        <v>252.7677441824818</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112408</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M41" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314067</v>
+        <v>354.564865531407</v>
       </c>
       <c r="O41" t="n">
-        <v>334.8055482454419</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R41" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H42" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.60569180208249</v>
+        <v>36.60569180208252</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K42" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L42" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M42" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P42" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551336</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S42" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932276</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003429</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K43" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L43" t="n">
-        <v>132.5192550391839</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M43" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N43" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O43" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P43" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R43" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T43" t="n">
-        <v>3.808490269561969</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.987109217947439</v>
+        <v>1.987109217947441</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491879</v>
       </c>
       <c r="J44" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867668</v>
       </c>
       <c r="K44" t="n">
-        <v>252.7677441824818</v>
+        <v>252.767744182482</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112408</v>
+        <v>313.580737911241</v>
       </c>
       <c r="M44" t="n">
-        <v>348.9189914659142</v>
+        <v>348.9189914659138</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314075</v>
       </c>
       <c r="O44" t="n">
-        <v>334.8055482454419</v>
+        <v>334.8055482454421</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273647</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R44" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397736</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564926</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H45" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.60569180208249</v>
+        <v>36.60569180208252</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K45" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L45" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257446</v>
       </c>
       <c r="M45" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906123</v>
       </c>
       <c r="N45" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874766</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614739</v>
       </c>
       <c r="P45" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107094</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551336</v>
+        <v>66.0114870255134</v>
       </c>
       <c r="S45" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842524</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741885</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932276</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003429</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108725</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507119</v>
       </c>
       <c r="K46" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L46" t="n">
-        <v>132.5192550391839</v>
+        <v>132.5192550391841</v>
       </c>
       <c r="M46" t="n">
-        <v>139.7229738682065</v>
+        <v>139.7229738682066</v>
       </c>
       <c r="N46" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O46" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P46" t="n">
-        <v>107.8045841409626</v>
+        <v>107.8045841409627</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262837</v>
       </c>
       <c r="R46" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905002</v>
       </c>
       <c r="S46" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T46" t="n">
-        <v>3.808490269561969</v>
+        <v>3.808490269561972</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781247</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J11" t="n">
         <v>139.2334515011801</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L11" t="n">
-        <v>275.2686954786179</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M11" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O11" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J12" t="n">
-        <v>344.9308271163659</v>
+        <v>79.83770185885251</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L12" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M12" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N12" t="n">
         <v>255.1768339739347</v>
@@ -35509,10 +35509,10 @@
         <v>181.2531855058806</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.9691469604239</v>
+        <v>378.0622722179379</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136923</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116927</v>
       </c>
       <c r="K13" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L13" t="n">
-        <v>490.7912967507201</v>
+        <v>110.6004951434827</v>
       </c>
       <c r="M13" t="n">
-        <v>348.5201907339242</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="N13" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O13" t="n">
-        <v>103.4889118870001</v>
+        <v>443.2304035674569</v>
       </c>
       <c r="P13" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297612</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J14" t="n">
         <v>139.2334515011801</v>
@@ -35655,19 +35655,19 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M14" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N14" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O14" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P14" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R14" t="n">
         <v>89.79009951709449</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.12755337977123</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885254</v>
+        <v>79.83770185885253</v>
       </c>
       <c r="K15" t="n">
-        <v>149.2837922911598</v>
+        <v>414.3769175486734</v>
       </c>
       <c r="L15" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M15" t="n">
-        <v>487.6920092081089</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
         <v>255.1768339739347</v>
@@ -35749,7 +35749,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136923</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>42.38160322116929</v>
       </c>
       <c r="K16" t="n">
-        <v>82.59386819622837</v>
+        <v>82.59386819622836</v>
       </c>
       <c r="L16" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742617</v>
       </c>
       <c r="M16" t="n">
-        <v>426.5317761745532</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N16" t="n">
         <v>517.7052302862629</v>
@@ -35822,10 +35822,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P16" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297613</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.01874334784338</v>
+        <v>50.01874334784337</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011801</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876721</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L17" t="n">
         <v>275.2686954786179</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N17" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O17" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R17" t="n">
         <v>89.79009951709449</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885254</v>
+        <v>214.7158714301869</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M18" t="n">
         <v>246.2931322782842</v>
@@ -35980,13 +35980,13 @@
         <v>229.7897616392515</v>
       </c>
       <c r="P18" t="n">
-        <v>422.6520624357053</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q18" t="n">
         <v>112.9691469604239</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136923</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K19" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L19" t="n">
-        <v>490.7912967507201</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M19" t="n">
-        <v>415.2846140766775</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N19" t="n">
         <v>517.7052302862629</v>
@@ -36059,10 +36059,10 @@
         <v>103.4889118870001</v>
       </c>
       <c r="P19" t="n">
-        <v>85.42378348297615</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.01874334784338</v>
+        <v>73.84487687344416</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J20" t="n">
         <v>139.2334515011801</v>
@@ -36129,22 +36129,22 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N20" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O20" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709496</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J21" t="n">
-        <v>344.9308271163659</v>
+        <v>214.7158714301869</v>
       </c>
       <c r="K21" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L21" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M21" t="n">
         <v>246.2931322782842</v>
@@ -36223,7 +36223,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136923</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
-        <v>82.59386819622837</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
-        <v>110.6004951434828</v>
+        <v>371.6331821287673</v>
       </c>
       <c r="M22" t="n">
         <v>534.4427286986307</v>
@@ -36293,13 +36293,13 @@
         <v>517.7052302862629</v>
       </c>
       <c r="O22" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P22" t="n">
-        <v>85.42378348297615</v>
+        <v>85.42378348297613</v>
       </c>
       <c r="Q22" t="n">
-        <v>179.3143442834501</v>
+        <v>50.01874334784337</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J23" t="n">
-        <v>493.5417926168721</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K23" t="n">
-        <v>217.0031433876725</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="L23" t="n">
         <v>275.2686954786179</v>
       </c>
       <c r="M23" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N23" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O23" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P23" t="n">
-        <v>750.8836385195242</v>
+        <v>571.3114845033653</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R23" t="n">
         <v>89.79009951709449</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885254</v>
+        <v>79.83770185885253</v>
       </c>
       <c r="K24" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L24" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M24" t="n">
         <v>246.2931322782842</v>
@@ -36457,10 +36457,10 @@
         <v>181.2531855058806</v>
       </c>
       <c r="Q24" t="n">
-        <v>378.0622722179372</v>
+        <v>247.8473165317582</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136923</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.38160322116929</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
         <v>332.3742814427153</v>
@@ -36527,7 +36527,7 @@
         <v>534.8601405048234</v>
       </c>
       <c r="N25" t="n">
-        <v>517.7052302862629</v>
+        <v>404.8128758212413</v>
       </c>
       <c r="O25" t="n">
         <v>485.006411183165</v>
@@ -36536,7 +36536,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
-        <v>168.7377161819327</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J26" t="n">
-        <v>534.9195310038328</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876725</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="L26" t="n">
-        <v>275.2686954786179</v>
+        <v>275.2686954786182</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N26" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969611</v>
       </c>
       <c r="O26" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894181</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171332</v>
+        <v>571.3114845033634</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R26" t="n">
-        <v>117.5241762099613</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208252</v>
       </c>
       <c r="J27" t="n">
-        <v>344.9308271163658</v>
+        <v>344.9308271163648</v>
       </c>
       <c r="K27" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L27" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O27" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P27" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136923</v>
+        <v>42.33856763136927</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.38160322116929</v>
+        <v>42.38160322116933</v>
       </c>
       <c r="K28" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L28" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N28" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O28" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P28" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q28" t="n">
-        <v>168.7377161819327</v>
+        <v>168.7377161819318</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J29" t="n">
-        <v>534.9195310038328</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876725</v>
+        <v>417.5350620005846</v>
       </c>
       <c r="L29" t="n">
-        <v>736.601167994048</v>
+        <v>275.2686954786182</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N29" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969611</v>
       </c>
       <c r="O29" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894181</v>
       </c>
       <c r="P29" t="n">
-        <v>248.1734276171332</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709449</v>
+        <v>243.5665220198735</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977126</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885254</v>
+        <v>214.7158714301854</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L30" t="n">
-        <v>208.3339289115149</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M30" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O30" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P30" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q30" t="n">
-        <v>378.0622722179372</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.38160322116929</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L31" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M31" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N31" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O31" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q31" t="n">
-        <v>168.7377161819327</v>
+        <v>90.02891148675924</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J32" t="n">
-        <v>534.9195310038328</v>
+        <v>534.919531003833</v>
       </c>
       <c r="K32" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L32" t="n">
-        <v>582.8247454912689</v>
+        <v>275.2686954786182</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664818</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N32" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969611</v>
       </c>
       <c r="O32" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894181</v>
       </c>
       <c r="P32" t="n">
-        <v>248.1734276171332</v>
+        <v>555.7294776297833</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R32" t="n">
-        <v>243.5665220198734</v>
+        <v>243.5665220198735</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977126</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885254</v>
+        <v>79.83770185885261</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L33" t="n">
-        <v>473.4270541690282</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M33" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O33" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P33" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.9691469604239</v>
+        <v>247.8473165317568</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.38160322116929</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
-        <v>332.3742814427153</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L34" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M34" t="n">
-        <v>534.8601405048234</v>
+        <v>534.8601405048236</v>
       </c>
       <c r="N34" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O34" t="n">
-        <v>485.006411183165</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P34" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q34" t="n">
-        <v>168.7377161819327</v>
+        <v>90.02891148675924</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L35" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786181</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664817</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969629</v>
       </c>
       <c r="O35" t="n">
-        <v>297.4145888894185</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709446</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.43330505208249</v>
+        <v>20.43330505208252</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885251</v>
+        <v>344.9308271163653</v>
       </c>
       <c r="K36" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L36" t="n">
-        <v>208.3339289115148</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M36" t="n">
-        <v>246.2931322782841</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P36" t="n">
-        <v>446.3463107633947</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136922</v>
+        <v>42.33856763136926</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.38160322116927</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K37" t="n">
-        <v>82.59386819622834</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L37" t="n">
-        <v>490.7912967507201</v>
+        <v>304.8687587860153</v>
       </c>
       <c r="M37" t="n">
-        <v>117.1475339767206</v>
+        <v>534.4427286986315</v>
       </c>
       <c r="N37" t="n">
-        <v>446.8986708768591</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O37" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870002</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.01874334784335</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J38" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L38" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786181</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664838</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969607</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894178</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709541</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>44.12755337977121</v>
+        <v>44.12755337977124</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885251</v>
+        <v>214.7158714301856</v>
       </c>
       <c r="K39" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L39" t="n">
-        <v>208.3339289115148</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M39" t="n">
-        <v>381.1713018496186</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>148.8592749898599</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.38160322116927</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K40" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622843</v>
       </c>
       <c r="L40" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M40" t="n">
-        <v>117.1475339767206</v>
+        <v>117.1475339767208</v>
       </c>
       <c r="N40" t="n">
-        <v>425.7332343225985</v>
+        <v>215.2873435777505</v>
       </c>
       <c r="O40" t="n">
-        <v>103.4889118870001</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q40" t="n">
         <v>202.9212659517818</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J41" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L41" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786181</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664817</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969607</v>
+        <v>317.285242696961</v>
       </c>
       <c r="O41" t="n">
-        <v>297.4145888894178</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709446</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>44.12755337977121</v>
+        <v>20.43330505208252</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885251</v>
+        <v>79.8377018588526</v>
       </c>
       <c r="K42" t="n">
-        <v>390.6826692209852</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L42" t="n">
-        <v>208.3339289115148</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782841</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N42" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P42" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.9691469604239</v>
+        <v>378.0622722179365</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136922</v>
+        <v>42.33856763136926</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.38160322116927</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K43" t="n">
-        <v>82.59386819622834</v>
+        <v>332.3742814427154</v>
       </c>
       <c r="L43" t="n">
-        <v>490.7912967507201</v>
+        <v>304.8687587860143</v>
       </c>
       <c r="M43" t="n">
-        <v>427.8584738634819</v>
+        <v>534.4427286986312</v>
       </c>
       <c r="N43" t="n">
-        <v>517.7052302862629</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O43" t="n">
-        <v>103.4889118870001</v>
+        <v>103.4889118870002</v>
       </c>
       <c r="P43" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.01874334784335</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095529</v>
       </c>
       <c r="J44" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876727</v>
       </c>
       <c r="L44" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786181</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664824</v>
+        <v>311.487728566482</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969615</v>
       </c>
       <c r="O44" t="n">
-        <v>297.4145888894178</v>
+        <v>297.414588889418</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171334</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709446</v>
+        <v>89.79009951709457</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.43330505208249</v>
+        <v>20.43330505208252</v>
       </c>
       <c r="J45" t="n">
-        <v>344.9308271163666</v>
+        <v>344.9308271163653</v>
       </c>
       <c r="K45" t="n">
-        <v>149.2837922911598</v>
+        <v>149.2837922911599</v>
       </c>
       <c r="L45" t="n">
-        <v>208.3339289115148</v>
+        <v>208.333928911515</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782841</v>
+        <v>246.2931322782843</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739349</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392517</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136922</v>
+        <v>42.33856763136926</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.38160322116927</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K46" t="n">
-        <v>82.59386819622834</v>
+        <v>82.59386819622843</v>
       </c>
       <c r="L46" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M46" t="n">
-        <v>534.4427286986307</v>
+        <v>117.1475339767208</v>
       </c>
       <c r="N46" t="n">
-        <v>411.1209754511141</v>
+        <v>215.2873435777491</v>
       </c>
       <c r="O46" t="n">
-        <v>103.4889118870001</v>
+        <v>485.0064111831651</v>
       </c>
       <c r="P46" t="n">
-        <v>401.3391416378323</v>
+        <v>401.3391416378324</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.01874334784335</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
